--- a/Models/Prospective_conso/data/Hypotheses_paper_pulp_1D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_paper_pulp_1D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{92CCBBB2-8921-4602-B11F-24C86DE56CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D7840E2-A758-4B53-BED9-064315D66B8C}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{92CCBBB2-8921-4602-B11F-24C86DE56CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A86C20-E948-452C-B2E3-6E86E7403914}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{263B99EF-50CC-433E-9045-94D7F8818570}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{263B99EF-50CC-433E-9045-94D7F8818570}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Nom</t>
   </si>
@@ -123,31 +123,34 @@
     <t>conso_unitaire_hydrogen</t>
   </si>
   <si>
-    <t>Mechanical pulping + Fossil fired PM</t>
-  </si>
-  <si>
-    <t>Chemical pulping + Fossil fired PM</t>
-  </si>
-  <si>
-    <t>DES pulping + Fossil fired PM</t>
-  </si>
-  <si>
-    <t>Mechanical pulping + Electric PM</t>
-  </si>
-  <si>
-    <t>Chemical pulping + Electric PM</t>
-  </si>
-  <si>
-    <t>DES pulping + Electric PM</t>
-  </si>
-  <si>
-    <t>Mechanical pulping + Biomass PM</t>
-  </si>
-  <si>
-    <t>Chemical pulping + Biomass PM</t>
-  </si>
-  <si>
-    <t>DES pulping + Biomass PM</t>
+    <t>Pulping mecanique + MP fossile</t>
+  </si>
+  <si>
+    <t>Pulping chimique + MP fossile</t>
+  </si>
+  <si>
+    <t>Pulping via DES + MP fossile</t>
+  </si>
+  <si>
+    <t>Pulping mecanique + MP electrique</t>
+  </si>
+  <si>
+    <t>Pulping chimique + MP electrique</t>
+  </si>
+  <si>
+    <t>Pulping via DES + MP electrique</t>
+  </si>
+  <si>
+    <t>Pulping mecanique + MP bois</t>
+  </si>
+  <si>
+    <t>Pulping chimique + MP bois</t>
+  </si>
+  <si>
+    <t>Pulping via DES + MP bois</t>
+  </si>
+  <si>
+    <t>seasonal_efficiency</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,37 +215,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +732,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,10 +742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -766,7 +753,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2020</v>
       </c>
     </row>
@@ -774,7 +761,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2050</v>
       </c>
     </row>
@@ -782,7 +769,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -790,15 +777,15 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -813,7 +800,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,10 +811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -835,118 +822,118 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>'[1]Production_system (3)'!G14*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>2330.16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>'[1]Production_system (3)'!G15*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>4466.1400000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>'[1]Production_system (3)'!G16*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>([2]PPA_ued!$Q$5*0.672+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.6284228123418421</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>'[1]Production_system (3)'!G17*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>873.81</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>'[1]Production_system (3)'!G18*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f>'[1]Production_system (3)'!G19*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>([2]PPA_ued!$Q$5*0.672+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.6284228123418421</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>'[1]Production_system (3)'!G20*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>'[1]Production_system (3)'!G21*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>2038.8899999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>([2]PPA_ued!$Q$5+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.7119622913756931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f>'[1]Production_system (3)'!G22*([2]PPA!$Q$10+[2]PPA!$Q$11)</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>([2]PPA_ued!$Q$5*0.672+[2]PPA_ued!$Q$31)/([2]PPA!$Q$11+[2]PPA!$Q$10)*11.628</f>
         <v>1.6284228123418421</v>
       </c>
@@ -962,7 +949,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDE4F52-1213-4E96-AFE3-14D53043F5A9}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,187 +1472,226 @@
     <col min="3" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" s="2">
+        <v>0.64724947431429825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="2">
         <v>187</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>227-C3</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="2">
+        <v>0.81021150558322341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2">
         <v>272</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="2">
+        <v>0.69400671890583965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.61170901977899528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="2">
         <v>346.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="2">
+        <v>0.63115005598290974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="2">
+        <v>0.81021150558322341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2050</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="2">
+        <v>1.0351908199407167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2050</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>44</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.91962472240630677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2050</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>272</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10" s="2">
+        <v>0.85376273680792314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2050</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.69348451972740355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2050</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>346.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" s="2">
+        <v>0.73620708377192978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2050</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.91962472240630677</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1705,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,352 +1715,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0.48484848484848492</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>6.0606060606060615E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.45454545454545459</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2020</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>2020</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.48484848484848492</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>6.0606060606060615E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.45454545454545459</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.48484848484848492</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>6.0606060606060615E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.45454545454545459</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>2020</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>1</v>
       </c>
     </row>
